--- a/example_internal.xlsx
+++ b/example_internal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansangjin/Desktop/전보프로그램 수정중/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2AB673-6A1E-9A4D-B0FE-2CB23B77EF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84AD54C-774E-7B47-95CD-2DC6E46E576A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,12 +51,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="73">
   <si>
     <t>전보희망지</t>
-  </si>
-  <si>
-    <t>47 세</t>
   </si>
   <si>
     <t>학교만기</t>
@@ -89,28 +86,13 @@
     <t>구역만기</t>
   </si>
   <si>
-    <t>32 세</t>
-  </si>
-  <si>
     <t>특수교사</t>
-  </si>
-  <si>
-    <t>56 세</t>
   </si>
   <si>
     <t>우대.특례사항</t>
   </si>
   <si>
-    <t>37 세</t>
-  </si>
-  <si>
     <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>42 세</t>
-  </si>
-  <si>
-    <t>55 세</t>
   </si>
   <si>
     <t>보건교사</t>
@@ -123,25 +105,10 @@
     <t>내신 특이사항</t>
   </si>
   <si>
-    <t>54 세</t>
-  </si>
-  <si>
     <t>수석교사</t>
   </si>
   <si>
-    <t>48 세</t>
-  </si>
-  <si>
-    <t>49 세</t>
-  </si>
-  <si>
-    <t>46 세</t>
-  </si>
-  <si>
     <t>전보년수</t>
-  </si>
-  <si>
-    <t>33 세</t>
   </si>
   <si>
     <t>및 가산점</t>
@@ -151,12 +118,6 @@
   </si>
   <si>
     <t>가산년수</t>
-  </si>
-  <si>
-    <t>50 세</t>
-  </si>
-  <si>
-    <t>43 세</t>
   </si>
   <si>
     <t>근평</t>
@@ -183,9 +144,6 @@
     <t>비정기</t>
   </si>
   <si>
-    <t>한혜영</t>
-  </si>
-  <si>
     <t>현임교</t>
   </si>
   <si>
@@ -195,25 +153,16 @@
     <t>표창</t>
   </si>
   <si>
-    <t>오혜정</t>
-  </si>
-  <si>
     <t>가산계</t>
   </si>
   <si>
     <t>급지</t>
   </si>
   <si>
-    <t>(을)</t>
-  </si>
-  <si>
     <t>근무</t>
   </si>
   <si>
     <t>명</t>
-  </si>
-  <si>
-    <t>박현근</t>
   </si>
   <si>
     <t>세자녀</t>
@@ -225,145 +174,25 @@
     <t>합계</t>
   </si>
   <si>
-    <t>박현정</t>
-  </si>
-  <si>
-    <t>은빛초</t>
-  </si>
-  <si>
-    <t>윤막례</t>
-  </si>
-  <si>
-    <t>김유정</t>
-  </si>
-  <si>
-    <t>박찬복</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>김제준</t>
   </si>
   <si>
     <t>전임교</t>
   </si>
   <si>
-    <t>은계중</t>
-  </si>
-  <si>
-    <t>이성록</t>
-  </si>
-  <si>
     <t>(갑)</t>
-  </si>
-  <si>
-    <t>박윤지</t>
-  </si>
-  <si>
-    <t>박숙이</t>
-  </si>
-  <si>
-    <t>전희영</t>
-  </si>
-  <si>
-    <t>형정석</t>
   </si>
   <si>
     <t>년수</t>
   </si>
   <si>
-    <t>남경민</t>
-  </si>
-  <si>
-    <t>김성은</t>
-  </si>
-  <si>
-    <t>민영희</t>
-  </si>
-  <si>
-    <t>김봉준</t>
-  </si>
-  <si>
-    <t>한정연</t>
-  </si>
-  <si>
     <t>부장</t>
-  </si>
-  <si>
-    <t>시흥월곶초</t>
-  </si>
-  <si>
-    <t>시흥은행초</t>
-  </si>
-  <si>
-    <t>시흥장현초</t>
-  </si>
-  <si>
-    <t>금모래초</t>
-  </si>
-  <si>
-    <t>웃터골초</t>
-  </si>
-  <si>
-    <t>배곧한울초</t>
-  </si>
-  <si>
-    <t>시흥신일초</t>
-  </si>
-  <si>
-    <t>배곧해솔초</t>
-  </si>
-  <si>
-    <t>냉정초</t>
-  </si>
-  <si>
-    <t>하중초</t>
-  </si>
-  <si>
-    <t>군서초</t>
-  </si>
-  <si>
-    <t>시화초</t>
-  </si>
-  <si>
-    <t>옥터초</t>
-  </si>
-  <si>
-    <t>승지초</t>
-  </si>
-  <si>
-    <t>정왕초</t>
-  </si>
-  <si>
-    <t>계수초</t>
-  </si>
-  <si>
-    <t>도창초</t>
-  </si>
-  <si>
-    <t>군자초</t>
-  </si>
-  <si>
-    <t>배곧초</t>
-  </si>
-  <si>
-    <t>목감초</t>
-  </si>
-  <si>
-    <t>산현초</t>
   </si>
   <si>
     <t>지역</t>
   </si>
   <si>
-    <t>서촌초</t>
-  </si>
-  <si>
     <t>일반</t>
-  </si>
-  <si>
-    <t>도일초</t>
   </si>
   <si>
     <t>2희망</t>
@@ -376,15 +205,6 @@
   </si>
   <si>
     <t>1희망</t>
-  </si>
-  <si>
-    <t>배곧한울초 김민식 (배우자)</t>
-  </si>
-  <si>
-    <t>배곧한울초 이혜경 (배우자)</t>
-  </si>
-  <si>
-    <t>하중초 김민선 (배우자)</t>
   </si>
   <si>
     <t>남</t>
@@ -403,9 +223,6 @@
   </si>
   <si>
     <t>연번</t>
-  </si>
-  <si>
-    <t>김지영</t>
   </si>
   <si>
     <t>초빙</t>
@@ -2308,7 +2125,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -2360,14 +2177,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -2398,60 +2215,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="62" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="66" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="66" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -2459,13 +2276,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="64" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="64" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -2480,51 +2297,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="67"/>
       <c r="X5" s="67"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="65"/>
       <c r="AC5" s="65"/>
@@ -9229,7 +9046,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="93" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="93"/>
@@ -9242,7 +9059,7 @@
     <row r="2" spans="1:8" ht="24" customHeight="1"/>
     <row r="3" spans="1:8" ht="24" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B3" s="38">
         <f>COUNTIF(총괄!D6:D213,A3)</f>
@@ -9250,7 +9067,7 @@
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="38">
         <f>B3-E5-E7</f>
@@ -9258,7 +9075,7 @@
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="43">
         <f>COUNTIF('초등(학교별)'!$J$6:$J$13,G3)</f>
@@ -9267,7 +9084,7 @@
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="38">
         <f>COUNTIF(총괄!D7:D214,A4)</f>
@@ -9282,7 +9099,7 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="38">
         <f>COUNTIF(총괄!D8:D215,A5)</f>
@@ -9290,7 +9107,7 @@
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="39" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E5" s="38">
         <f>COUNTIF(총괄!$J$6:$J$213,D5)</f>
@@ -9298,7 +9115,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="43">
         <f>COUNTIF('초등(학교별)'!$J$6:$J$13,G5)</f>
@@ -9307,7 +9124,7 @@
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="38">
         <f>COUNTIF(총괄!D9:D216,A6)</f>
@@ -9322,7 +9139,7 @@
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="38">
         <f>COUNTIF(총괄!D10:D217,A7)</f>
@@ -9330,7 +9147,7 @@
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="39" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E7" s="38">
         <f>COUNTIF(총괄!$J$6:$J$213,D7)</f>
@@ -9338,7 +9155,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="46" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="H7" s="43">
         <f>COUNTIF('초등(학교별)'!$J$6:$J$13,G7)</f>
@@ -9357,7 +9174,7 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B9" s="38">
         <f>SUM(B3:B7)</f>
@@ -9365,7 +9182,7 @@
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="39" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E9" s="38">
         <f>SUM(E3,E5,E7)</f>
@@ -9373,7 +9190,7 @@
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="46" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="38">
         <f>SUM(H3,H5,H7)</f>
@@ -9434,7 +9251,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -9486,14 +9303,14 @@
     <row r="3" spans="1:32" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
         <v>8</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -9524,60 +9341,60 @@
     </row>
     <row r="4" spans="1:32" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="66" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="66" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -9585,19 +9402,19 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="82" t="s">
-        <v>34</v>
-      </c>
       <c r="AF4" s="84" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30">
@@ -9612,51 +9429,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="85"/>
       <c r="X5" s="67"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -9669,29 +9486,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I6" s="28">
         <v>41883</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -9708,17 +9525,17 @@
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
       <c r="Y6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB6" s="31"/>
       <c r="AC6" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="31"/>
       <c r="AE6" s="70"/>
@@ -9729,29 +9546,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I7" s="28">
         <v>42064</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -9768,17 +9585,17 @@
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB7" s="31"/>
       <c r="AC7" s="36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD7" s="31"/>
       <c r="AE7" s="68"/>
@@ -9789,29 +9606,29 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I8" s="28">
         <v>42064</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -9828,17 +9645,17 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB8" s="31"/>
       <c r="AC8" s="71" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AD8" s="31"/>
       <c r="AE8" s="68"/>
@@ -9849,29 +9666,29 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I9" s="28">
         <v>42795</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -9888,15 +9705,15 @@
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
       <c r="Y9" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="AC9" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="AD9" s="31"/>
       <c r="AE9" s="68"/>
@@ -9907,29 +9724,29 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I10" s="28">
         <v>42064</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -9946,19 +9763,19 @@
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB10" s="31" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD10" s="31"/>
       <c r="AE10" s="68"/>
@@ -9969,29 +9786,29 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I11" s="28">
         <v>43160</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -10008,16 +9825,16 @@
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AE11" s="68"/>
       <c r="AF11" s="69"/>
@@ -10027,29 +9844,29 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I12" s="28">
         <v>41334</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -10066,13 +9883,13 @@
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="31"/>
       <c r="AC12" s="36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD12" s="31"/>
       <c r="AE12" s="68"/>
@@ -10083,29 +9900,29 @@
         <v>8</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I13" s="28">
         <v>40969</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -10122,19 +9939,19 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB13" s="31" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC13" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD13" s="31"/>
       <c r="AE13" s="70"/>
@@ -10218,7 +10035,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -10270,14 +10087,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -10308,60 +10125,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -10369,13 +10186,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -10390,51 +10207,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -16528,7 +16345,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16559,7 +16376,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -16611,14 +16428,14 @@
     <row r="3" spans="1:32" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -16649,60 +16466,60 @@
     </row>
     <row r="4" spans="1:32" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -16710,19 +16527,19 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="72" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="75" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="77" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30">
@@ -16737,51 +16554,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -16790,521 +16607,205 @@
       <c r="AF5" s="78"/>
     </row>
     <row r="6" spans="1:32" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="27">
-        <v>7706121067417</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42430</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="30">
-        <v>4</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="U6" s="30">
-        <v>1.05</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>2.02</v>
-      </c>
-      <c r="X6" s="30">
-        <v>6.02</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>79</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="31" t="s">
-        <v>108</v>
-      </c>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
       <c r="AE6" s="74"/>
       <c r="AF6" s="74"/>
     </row>
     <row r="7" spans="1:32" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="27">
-        <v>7211151654641</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="28">
-        <v>42234</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="30">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>1</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>2.09</v>
-      </c>
-      <c r="X7" s="30">
-        <v>7.0299999999999994</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="31" t="s">
-        <v>109</v>
-      </c>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="31"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
     </row>
     <row r="8" spans="1:32" ht="28" customHeight="1">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="27">
-        <v>7106261648511</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="30">
-        <v>5</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>0</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="U8" s="30">
-        <v>5</v>
-      </c>
-      <c r="V8" s="30">
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <v>5.03</v>
-      </c>
-      <c r="X8" s="30">
-        <v>10.030000000000001</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="31"/>
-      <c r="AC8" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="68"/>
       <c r="AF8" s="68"/>
     </row>
     <row r="9" spans="1:32" ht="28" customHeight="1">
-      <c r="A9" s="26">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="27">
-        <v>7606252846216</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="28">
-        <v>42795</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="30">
-        <v>3</v>
-      </c>
-      <c r="L9" s="30">
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="30">
-        <v>0</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="R9" s="30">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="30">
-        <v>0</v>
-      </c>
-      <c r="V9" s="30">
-        <v>0</v>
-      </c>
-      <c r="W9" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X9" s="30">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC9" s="36"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="68"/>
       <c r="AF9" s="68"/>
     </row>
     <row r="10" spans="1:32" ht="28" customHeight="1">
-      <c r="A10" s="26">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="27">
-        <v>6512251642113</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="28">
-        <v>41699</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="30">
-        <v>5</v>
-      </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N10" s="30">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="P10" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
-        <v>0</v>
-      </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-      <c r="V10" s="30">
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <v>3.0100000000000002</v>
-      </c>
-      <c r="X10" s="30">
-        <v>8.01</v>
-      </c>
-      <c r="Y10" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC10" s="36"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="68"/>
       <c r="AF10" s="68"/>
     </row>
     <row r="11" spans="1:32" ht="28" customHeight="1">
-      <c r="A11" s="26">
-        <v>6</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="27">
-        <v>7604042279613</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="30">
-        <v>5</v>
-      </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <v>0</v>
-      </c>
-      <c r="N11" s="30">
-        <v>0</v>
-      </c>
-      <c r="O11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>0</v>
-      </c>
-      <c r="R11" s="30">
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
-        <v>0</v>
-      </c>
-      <c r="U11" s="30">
-        <v>5</v>
-      </c>
-      <c r="V11" s="30">
-        <v>0</v>
-      </c>
-      <c r="W11" s="30">
-        <v>5</v>
-      </c>
-      <c r="X11" s="30">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="31"/>
-      <c r="AC11" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC11" s="36"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="68"/>
       <c r="AF11" s="68"/>
@@ -17342,7 +16843,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -17373,7 +16874,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -17425,14 +16926,14 @@
     <row r="3" spans="1:32" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -17463,60 +16964,60 @@
     </row>
     <row r="4" spans="1:32" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -17524,19 +17025,19 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="64" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="80" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30">
@@ -17551,51 +17052,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -17604,171 +17105,69 @@
       <c r="AF5" s="81"/>
     </row>
     <row r="6" spans="1:32" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>8703192553611</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42979</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="30">
-        <v>2.06</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="X6" s="30">
-        <v>3</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
     </row>
     <row r="7" spans="1:32" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>6406152646012</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="28">
-        <v>43525</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0</v>
-      </c>
-      <c r="X7" s="30">
-        <v>0.1</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
@@ -17806,7 +17205,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -17837,7 +17236,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -17889,14 +17288,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -17927,60 +17326,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -17988,13 +17387,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -18009,486 +17408,214 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>8609232057919</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="30">
-        <v>5</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>5</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>5</v>
-      </c>
-      <c r="X6" s="30">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="1:30" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>8301112106413</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28">
-        <v>43160</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="30">
-        <v>2</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="X7" s="30">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>98</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
     </row>
     <row r="8" spans="1:30" ht="28" customHeight="1">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="27">
-        <v>7007102392314</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="28">
-        <v>43160</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="30">
-        <v>2</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>7.0000000000000118E-2</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <v>0</v>
-      </c>
-      <c r="V8" s="30">
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="X8" s="30">
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="31"/>
-      <c r="AC8" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="31"/>
     </row>
     <row r="9" spans="1:30" ht="28" customHeight="1">
-      <c r="A9" s="26">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="27">
-        <v>6504302899219</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="30">
-        <v>5</v>
-      </c>
-      <c r="L9" s="30">
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N9" s="30">
-        <v>0</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="30">
-        <v>0</v>
-      </c>
-      <c r="V9" s="30">
-        <v>0</v>
-      </c>
-      <c r="W9" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="X9" s="30">
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z9" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC9" s="36"/>
       <c r="AD9" s="31"/>
     </row>
     <row r="10" spans="1:30" ht="28" customHeight="1">
-      <c r="A10" s="26">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="27">
-        <v>7012022650517</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="30">
-        <v>5</v>
-      </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N10" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="30">
-        <v>0</v>
-      </c>
-      <c r="P10" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
-        <v>0</v>
-      </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-      <c r="V10" s="30">
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <v>1.08</v>
-      </c>
-      <c r="X10" s="30">
-        <v>6.08</v>
-      </c>
-      <c r="Y10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA10" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC10" s="36"/>
       <c r="AD10" s="31"/>
     </row>
   </sheetData>
@@ -18524,7 +17651,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18555,7 +17682,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -18607,14 +17734,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -18645,60 +17772,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -18706,13 +17833,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -18727,314 +17854,150 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="27">
-        <v>7002201403314</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42430</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="30">
-        <v>4</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>1.0200000000000002</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>2.11</v>
-      </c>
-      <c r="X6" s="30">
-        <v>6.1099999999999994</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>91</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="1:30" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>6305102149217</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="28">
-        <v>41699</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="30">
-        <v>5</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.11</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="X7" s="30">
-        <v>7.0500000000000007</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
     </row>
     <row r="8" spans="1:30" ht="28" customHeight="1">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="27">
-        <v>6310212476511</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="28">
-        <v>41699</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="30">
-        <v>5</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="V8" s="30">
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <v>6.06</v>
-      </c>
-      <c r="X8" s="30">
-        <v>11.059999999999999</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z8" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>87</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
       <c r="AB8" s="31"/>
-      <c r="AC8" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="31"/>
     </row>
   </sheetData>
@@ -19070,7 +18033,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -19101,7 +18064,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -19153,14 +18116,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -19191,60 +18154,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -19252,13 +18215,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -19273,138 +18236,86 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>7310312178220</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="28">
-        <v>43132</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="30">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>7.0000000000000118E-2</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="X6" s="30">
-        <v>2.08</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
   </sheetData>
@@ -19440,7 +18351,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -19471,7 +18382,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -19523,14 +18434,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -19561,60 +18472,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -19622,13 +18533,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -19643,226 +18554,118 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>8607292155319</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42795</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="30">
-        <v>3</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="X6" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="1:30" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>8212162009117</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="30">
-        <v>5</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="X7" s="30">
-        <v>5.03</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
     </row>
   </sheetData>

--- a/example_internal.xlsx
+++ b/example_internal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansangjin/Desktop/전보프로그램 수정중/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2AB673-6A1E-9A4D-B0FE-2CB23B77EF48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC198E-DBF1-B042-8363-A5BB4F8E9E7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,12 +51,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="73">
   <si>
     <t>전보희망지</t>
-  </si>
-  <si>
-    <t>47 세</t>
   </si>
   <si>
     <t>학교만기</t>
@@ -89,28 +86,13 @@
     <t>구역만기</t>
   </si>
   <si>
-    <t>32 세</t>
-  </si>
-  <si>
     <t>특수교사</t>
-  </si>
-  <si>
-    <t>56 세</t>
   </si>
   <si>
     <t>우대.특례사항</t>
   </si>
   <si>
-    <t>37 세</t>
-  </si>
-  <si>
     <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>42 세</t>
-  </si>
-  <si>
-    <t>55 세</t>
   </si>
   <si>
     <t>보건교사</t>
@@ -123,25 +105,10 @@
     <t>내신 특이사항</t>
   </si>
   <si>
-    <t>54 세</t>
-  </si>
-  <si>
     <t>수석교사</t>
   </si>
   <si>
-    <t>48 세</t>
-  </si>
-  <si>
-    <t>49 세</t>
-  </si>
-  <si>
-    <t>46 세</t>
-  </si>
-  <si>
     <t>전보년수</t>
-  </si>
-  <si>
-    <t>33 세</t>
   </si>
   <si>
     <t>및 가산점</t>
@@ -151,12 +118,6 @@
   </si>
   <si>
     <t>가산년수</t>
-  </si>
-  <si>
-    <t>50 세</t>
-  </si>
-  <si>
-    <t>43 세</t>
   </si>
   <si>
     <t>근평</t>
@@ -183,9 +144,6 @@
     <t>비정기</t>
   </si>
   <si>
-    <t>한혜영</t>
-  </si>
-  <si>
     <t>현임교</t>
   </si>
   <si>
@@ -195,25 +153,16 @@
     <t>표창</t>
   </si>
   <si>
-    <t>오혜정</t>
-  </si>
-  <si>
     <t>가산계</t>
   </si>
   <si>
     <t>급지</t>
   </si>
   <si>
-    <t>(을)</t>
-  </si>
-  <si>
     <t>근무</t>
   </si>
   <si>
     <t>명</t>
-  </si>
-  <si>
-    <t>박현근</t>
   </si>
   <si>
     <t>세자녀</t>
@@ -225,145 +174,25 @@
     <t>합계</t>
   </si>
   <si>
-    <t>박현정</t>
-  </si>
-  <si>
-    <t>은빛초</t>
-  </si>
-  <si>
-    <t>윤막례</t>
-  </si>
-  <si>
-    <t>김유정</t>
-  </si>
-  <si>
-    <t>박찬복</t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>김제준</t>
   </si>
   <si>
     <t>전임교</t>
   </si>
   <si>
-    <t>은계중</t>
-  </si>
-  <si>
-    <t>이성록</t>
-  </si>
-  <si>
     <t>(갑)</t>
-  </si>
-  <si>
-    <t>박윤지</t>
-  </si>
-  <si>
-    <t>박숙이</t>
-  </si>
-  <si>
-    <t>전희영</t>
-  </si>
-  <si>
-    <t>형정석</t>
   </si>
   <si>
     <t>년수</t>
   </si>
   <si>
-    <t>남경민</t>
-  </si>
-  <si>
-    <t>김성은</t>
-  </si>
-  <si>
-    <t>민영희</t>
-  </si>
-  <si>
-    <t>김봉준</t>
-  </si>
-  <si>
-    <t>한정연</t>
-  </si>
-  <si>
     <t>부장</t>
-  </si>
-  <si>
-    <t>시흥월곶초</t>
-  </si>
-  <si>
-    <t>시흥은행초</t>
-  </si>
-  <si>
-    <t>시흥장현초</t>
-  </si>
-  <si>
-    <t>금모래초</t>
-  </si>
-  <si>
-    <t>웃터골초</t>
-  </si>
-  <si>
-    <t>배곧한울초</t>
-  </si>
-  <si>
-    <t>시흥신일초</t>
-  </si>
-  <si>
-    <t>배곧해솔초</t>
-  </si>
-  <si>
-    <t>냉정초</t>
-  </si>
-  <si>
-    <t>하중초</t>
-  </si>
-  <si>
-    <t>군서초</t>
-  </si>
-  <si>
-    <t>시화초</t>
-  </si>
-  <si>
-    <t>옥터초</t>
-  </si>
-  <si>
-    <t>승지초</t>
-  </si>
-  <si>
-    <t>정왕초</t>
-  </si>
-  <si>
-    <t>계수초</t>
-  </si>
-  <si>
-    <t>도창초</t>
-  </si>
-  <si>
-    <t>군자초</t>
-  </si>
-  <si>
-    <t>배곧초</t>
-  </si>
-  <si>
-    <t>목감초</t>
-  </si>
-  <si>
-    <t>산현초</t>
   </si>
   <si>
     <t>지역</t>
   </si>
   <si>
-    <t>서촌초</t>
-  </si>
-  <si>
     <t>일반</t>
-  </si>
-  <si>
-    <t>도일초</t>
   </si>
   <si>
     <t>2희망</t>
@@ -376,15 +205,6 @@
   </si>
   <si>
     <t>1희망</t>
-  </si>
-  <si>
-    <t>배곧한울초 김민식 (배우자)</t>
-  </si>
-  <si>
-    <t>배곧한울초 이혜경 (배우자)</t>
-  </si>
-  <si>
-    <t>하중초 김민선 (배우자)</t>
   </si>
   <si>
     <t>남</t>
@@ -403,9 +223,6 @@
   </si>
   <si>
     <t>연번</t>
-  </si>
-  <si>
-    <t>김지영</t>
   </si>
   <si>
     <t>초빙</t>
@@ -2308,7 +2125,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -2360,14 +2177,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -2398,60 +2215,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="62" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="66" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="66" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -2459,13 +2276,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="64" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="64" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -2480,51 +2297,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="67"/>
       <c r="X5" s="67"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="65"/>
       <c r="AC5" s="65"/>
@@ -9229,7 +9046,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="93" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="93"/>
@@ -9242,7 +9059,7 @@
     <row r="2" spans="1:8" ht="24" customHeight="1"/>
     <row r="3" spans="1:8" ht="24" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B3" s="38">
         <f>COUNTIF(총괄!D6:D213,A3)</f>
@@ -9250,7 +9067,7 @@
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="38">
         <f>B3-E5-E7</f>
@@ -9258,7 +9075,7 @@
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="43">
         <f>COUNTIF('초등(학교별)'!$J$6:$J$13,G3)</f>
@@ -9267,7 +9084,7 @@
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="38">
         <f>COUNTIF(총괄!D7:D214,A4)</f>
@@ -9282,7 +9099,7 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="38">
         <f>COUNTIF(총괄!D8:D215,A5)</f>
@@ -9290,7 +9107,7 @@
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="39" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E5" s="38">
         <f>COUNTIF(총괄!$J$6:$J$213,D5)</f>
@@ -9298,7 +9115,7 @@
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="43">
         <f>COUNTIF('초등(학교별)'!$J$6:$J$13,G5)</f>
@@ -9307,7 +9124,7 @@
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="38">
         <f>COUNTIF(총괄!D9:D216,A6)</f>
@@ -9322,7 +9139,7 @@
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="38">
         <f>COUNTIF(총괄!D10:D217,A7)</f>
@@ -9330,7 +9147,7 @@
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="39" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E7" s="38">
         <f>COUNTIF(총괄!$J$6:$J$213,D7)</f>
@@ -9338,7 +9155,7 @@
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="46" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="H7" s="43">
         <f>COUNTIF('초등(학교별)'!$J$6:$J$13,G7)</f>
@@ -9357,7 +9174,7 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B9" s="38">
         <f>SUM(B3:B7)</f>
@@ -9365,7 +9182,7 @@
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="39" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E9" s="38">
         <f>SUM(E3,E5,E7)</f>
@@ -9373,7 +9190,7 @@
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="46" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="38">
         <f>SUM(H3,H5,H7)</f>
@@ -9434,7 +9251,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -9486,14 +9303,14 @@
     <row r="3" spans="1:32" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
         <v>8</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -9524,60 +9341,60 @@
     </row>
     <row r="4" spans="1:32" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="66" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="66" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -9585,19 +9402,19 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="82" t="s">
-        <v>34</v>
-      </c>
       <c r="AF4" s="84" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30">
@@ -9612,51 +9429,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="85"/>
       <c r="X5" s="67"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -9669,29 +9486,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I6" s="28">
         <v>41883</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -9708,17 +9525,17 @@
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
       <c r="Y6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB6" s="31"/>
       <c r="AC6" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="31"/>
       <c r="AE6" s="70"/>
@@ -9729,29 +9546,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I7" s="28">
         <v>42064</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -9768,17 +9585,17 @@
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB7" s="31"/>
       <c r="AC7" s="36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD7" s="31"/>
       <c r="AE7" s="68"/>
@@ -9789,29 +9606,29 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I8" s="28">
         <v>42064</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -9828,17 +9645,17 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB8" s="31"/>
       <c r="AC8" s="71" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AD8" s="31"/>
       <c r="AE8" s="68"/>
@@ -9849,29 +9666,29 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I9" s="28">
         <v>42795</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -9888,15 +9705,15 @@
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
       <c r="Y9" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="AC9" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="AD9" s="31"/>
       <c r="AE9" s="68"/>
@@ -9907,29 +9724,29 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I10" s="28">
         <v>42064</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -9946,19 +9763,19 @@
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB10" s="31" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD10" s="31"/>
       <c r="AE10" s="68"/>
@@ -9969,29 +9786,29 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I11" s="28">
         <v>43160</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -10008,16 +9825,16 @@
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD11" s="31" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AE11" s="68"/>
       <c r="AF11" s="69"/>
@@ -10027,29 +9844,29 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I12" s="28">
         <v>41334</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -10066,13 +9883,13 @@
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="31"/>
       <c r="AC12" s="36" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD12" s="31"/>
       <c r="AE12" s="68"/>
@@ -10083,29 +9900,29 @@
         <v>8</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I13" s="28">
         <v>40969</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -10122,19 +9939,19 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="AB13" s="31" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC13" s="31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD13" s="31"/>
       <c r="AE13" s="70"/>
@@ -10218,7 +10035,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -10270,14 +10087,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -10308,60 +10125,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -10369,13 +10186,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -10390,51 +10207,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -16528,7 +16345,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16559,7 +16376,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -16611,14 +16428,14 @@
     <row r="3" spans="1:32" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -16649,60 +16466,60 @@
     </row>
     <row r="4" spans="1:32" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -16710,19 +16527,19 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="72" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="75" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="77" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30">
@@ -16737,51 +16554,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -16790,521 +16607,205 @@
       <c r="AF5" s="78"/>
     </row>
     <row r="6" spans="1:32" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="27">
-        <v>7706121067417</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42430</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="30">
-        <v>4</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="U6" s="30">
-        <v>1.05</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>2.02</v>
-      </c>
-      <c r="X6" s="30">
-        <v>6.02</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>79</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="31" t="s">
-        <v>108</v>
-      </c>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
       <c r="AE6" s="74"/>
       <c r="AF6" s="74"/>
     </row>
     <row r="7" spans="1:32" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="27">
-        <v>7211151654641</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="28">
-        <v>42234</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="30">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>1</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>2.09</v>
-      </c>
-      <c r="X7" s="30">
-        <v>7.0299999999999994</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="31" t="s">
-        <v>109</v>
-      </c>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="31"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
     </row>
     <row r="8" spans="1:32" ht="28" customHeight="1">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="27">
-        <v>7106261648511</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="30">
-        <v>5</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>0</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="U8" s="30">
-        <v>5</v>
-      </c>
-      <c r="V8" s="30">
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <v>5.03</v>
-      </c>
-      <c r="X8" s="30">
-        <v>10.030000000000001</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="31"/>
-      <c r="AC8" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="68"/>
       <c r="AF8" s="68"/>
     </row>
     <row r="9" spans="1:32" ht="28" customHeight="1">
-      <c r="A9" s="26">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="27">
-        <v>7606252846216</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="28">
-        <v>42795</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="30">
-        <v>3</v>
-      </c>
-      <c r="L9" s="30">
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="30">
-        <v>0</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="R9" s="30">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="30">
-        <v>0</v>
-      </c>
-      <c r="V9" s="30">
-        <v>0</v>
-      </c>
-      <c r="W9" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X9" s="30">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC9" s="36"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="68"/>
       <c r="AF9" s="68"/>
     </row>
     <row r="10" spans="1:32" ht="28" customHeight="1">
-      <c r="A10" s="26">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="27">
-        <v>6512251642113</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="28">
-        <v>41699</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="30">
-        <v>5</v>
-      </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N10" s="30">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="30">
-        <v>0.09</v>
-      </c>
-      <c r="P10" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
-        <v>0</v>
-      </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-      <c r="V10" s="30">
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <v>3.0100000000000002</v>
-      </c>
-      <c r="X10" s="30">
-        <v>8.01</v>
-      </c>
-      <c r="Y10" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC10" s="36"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="68"/>
       <c r="AF10" s="68"/>
     </row>
     <row r="11" spans="1:32" ht="28" customHeight="1">
-      <c r="A11" s="26">
-        <v>6</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="27">
-        <v>7604042279613</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="30">
-        <v>5</v>
-      </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <v>0</v>
-      </c>
-      <c r="N11" s="30">
-        <v>0</v>
-      </c>
-      <c r="O11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>0</v>
-      </c>
-      <c r="R11" s="30">
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
-        <v>0</v>
-      </c>
-      <c r="U11" s="30">
-        <v>5</v>
-      </c>
-      <c r="V11" s="30">
-        <v>0</v>
-      </c>
-      <c r="W11" s="30">
-        <v>5</v>
-      </c>
-      <c r="X11" s="30">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="31"/>
-      <c r="AC11" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC11" s="36"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="68"/>
       <c r="AF11" s="68"/>
@@ -17342,7 +16843,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -17373,7 +16874,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -17425,14 +16926,14 @@
     <row r="3" spans="1:32" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -17463,60 +16964,60 @@
     </row>
     <row r="4" spans="1:32" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -17524,19 +17025,19 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AE4" s="64" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="80" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30">
@@ -17551,51 +17052,51 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
@@ -17604,171 +17105,69 @@
       <c r="AF5" s="81"/>
     </row>
     <row r="6" spans="1:32" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>8703192553611</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42979</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="30">
-        <v>2.06</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="X6" s="30">
-        <v>3</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
       <c r="AE6" s="68"/>
       <c r="AF6" s="68"/>
     </row>
     <row r="7" spans="1:32" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>6406152646012</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="28">
-        <v>43525</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0</v>
-      </c>
-      <c r="X7" s="30">
-        <v>0.1</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
       <c r="AE7" s="68"/>
       <c r="AF7" s="68"/>
@@ -17806,7 +17205,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -17837,7 +17236,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -17889,14 +17288,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -17927,60 +17326,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -17988,13 +17387,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -18009,486 +17408,214 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>8609232057919</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="30">
-        <v>5</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>5</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>5</v>
-      </c>
-      <c r="X6" s="30">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="1:30" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>8301112106413</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28">
-        <v>43160</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="30">
-        <v>2</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="X7" s="30">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>98</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
     </row>
     <row r="8" spans="1:30" ht="28" customHeight="1">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="27">
-        <v>7007102392314</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="28">
-        <v>43160</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="30">
-        <v>2</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>7.0000000000000118E-2</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <v>0</v>
-      </c>
-      <c r="V8" s="30">
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="X8" s="30">
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="31"/>
-      <c r="AC8" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="31"/>
     </row>
     <row r="9" spans="1:30" ht="28" customHeight="1">
-      <c r="A9" s="26">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="27">
-        <v>6504302899219</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="30">
-        <v>5</v>
-      </c>
-      <c r="L9" s="30">
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N9" s="30">
-        <v>0</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="30">
-        <v>0</v>
-      </c>
-      <c r="V9" s="30">
-        <v>0</v>
-      </c>
-      <c r="W9" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="X9" s="30">
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z9" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
       <c r="AB9" s="31"/>
-      <c r="AC9" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC9" s="36"/>
       <c r="AD9" s="31"/>
     </row>
     <row r="10" spans="1:30" ht="28" customHeight="1">
-      <c r="A10" s="26">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="27">
-        <v>7012022650517</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="30">
-        <v>5</v>
-      </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N10" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="30">
-        <v>0</v>
-      </c>
-      <c r="P10" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
-        <v>0</v>
-      </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-      <c r="V10" s="30">
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <v>1.08</v>
-      </c>
-      <c r="X10" s="30">
-        <v>6.08</v>
-      </c>
-      <c r="Y10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA10" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC10" s="36"/>
       <c r="AD10" s="31"/>
     </row>
   </sheetData>
@@ -18524,7 +17651,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18555,7 +17682,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -18607,14 +17734,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -18645,60 +17772,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -18706,13 +17833,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -18727,314 +17854,150 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="27">
-        <v>7002201403314</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42430</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="30">
-        <v>4</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>1.0200000000000002</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>2.11</v>
-      </c>
-      <c r="X6" s="30">
-        <v>6.1099999999999994</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>91</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="1:30" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>6305102149217</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="28">
-        <v>41699</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="30">
-        <v>5</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.11</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="X7" s="30">
-        <v>7.0500000000000007</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
     </row>
     <row r="8" spans="1:30" ht="28" customHeight="1">
-      <c r="A8" s="26">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="27">
-        <v>6310212476511</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="28">
-        <v>41699</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="30">
-        <v>5</v>
-      </c>
-      <c r="L8" s="30">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
-        <v>1.06</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="V8" s="30">
-        <v>0</v>
-      </c>
-      <c r="W8" s="30">
-        <v>6.06</v>
-      </c>
-      <c r="X8" s="30">
-        <v>11.059999999999999</v>
-      </c>
-      <c r="Y8" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z8" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>87</v>
-      </c>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
       <c r="AB8" s="31"/>
-      <c r="AC8" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="31"/>
     </row>
   </sheetData>
@@ -19070,7 +18033,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -19101,7 +18064,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -19153,14 +18116,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -19191,60 +18154,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -19252,13 +18215,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -19273,138 +18236,86 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>7310312178220</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="28">
-        <v>43132</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="30">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>7.0000000000000118E-2</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>7.0000000000000104E-2</v>
-      </c>
-      <c r="X6" s="30">
-        <v>2.08</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
   </sheetData>
@@ -19440,7 +18351,7 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -19471,7 +18382,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="48"/>
       <c r="P1" s="52" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="48"/>
       <c r="R1" s="48"/>
@@ -19523,14 +18434,14 @@
     <row r="3" spans="1:30" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14">
         <f>MAX(A:A)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -19561,60 +18472,60 @@
     </row>
     <row r="4" spans="1:30" ht="23.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="61" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
       <c r="V4" s="51"/>
       <c r="W4" s="57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X4" s="57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="49"/>
       <c r="Z4" s="50" t="s">
@@ -19622,13 +18533,13 @@
       </c>
       <c r="AA4" s="51"/>
       <c r="AB4" s="55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" s="55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30">
@@ -19643,226 +18554,118 @@
       <c r="I5" s="56"/>
       <c r="J5" s="54"/>
       <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="P5" s="25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="S5" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="V5" s="25" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
       <c r="Y5" s="23" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="56"/>
       <c r="AC5" s="56"/>
       <c r="AD5" s="56"/>
     </row>
     <row r="6" spans="1:30" ht="28" customHeight="1">
-      <c r="A6" s="26">
-        <v>1</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="27">
-        <v>8607292155319</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="28">
-        <v>42795</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="30">
-        <v>3</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>0</v>
-      </c>
-      <c r="P6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <v>0</v>
-      </c>
-      <c r="T6" s="30">
-        <v>0</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0</v>
-      </c>
-      <c r="V6" s="30">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="X6" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
       <c r="AA6" s="26"/>
       <c r="AB6" s="31"/>
-      <c r="AC6" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC6" s="31"/>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="1:30" ht="28" customHeight="1">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="27">
-        <v>8212162009117</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28">
-        <v>42064</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="30">
-        <v>5</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
-        <v>0</v>
-      </c>
-      <c r="T7" s="30">
-        <v>0</v>
-      </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="X7" s="30">
-        <v>5.03</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
       <c r="AB7" s="31"/>
-      <c r="AC7" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="AC7" s="36"/>
       <c r="AD7" s="31"/>
     </row>
   </sheetData>
